--- a/vc_qualificationsd.xlsx
+++ b/vc_qualificationsd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasimtugrulvural/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasimtugrulvural/Documents/selenTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF7DCEC-69C6-AB4C-83F8-578D3CF0542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086A668-C539-614C-B6B9-35F33243412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VCs Data from Crunchbase'!$A$1:$BC$323</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>VC Website</t>
   </si>
@@ -204,672 +203,6 @@
   </si>
   <si>
     <t>Angel Investment, Venture Capital</t>
-  </si>
-  <si>
-    <t>https://toyota.ventures</t>
-  </si>
-  <si>
-    <t>Toyota Ventures</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/toyota-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/toyota-ai-ventures</t>
-  </si>
-  <si>
-    <t>Los Altos, California, United States</t>
-  </si>
-  <si>
-    <t>Toyota Ventures is a seed-stage venture capital firm that invests in startups around the world.</t>
-  </si>
-  <si>
-    <t>Toyota Ventures is a San Francisco Bay Area-based venture capital firm that invests in early-stage startups from around the world. Founded in July 2017, its mission is to discover whatā€™s next for Toyota by helping startups bring disruptive technologies and business models to market quickly. With more than $500 million in assets under management, the firmā€™s funds include the Toyota Ventures Frontier Fund focused on artificial intelligence, cloud computing, autonomy, mobility, robotics, smart cities, digital health, financial technologies, materials, and energy; and the Toyota Ventures Climate Fund focused on innovative solutions for carbon neutrality.</t>
-  </si>
-  <si>
-    <t>https://www.twitter.com/toyota_ventures</t>
-  </si>
-  <si>
-    <t>info@toyota.ventures</t>
-  </si>
-  <si>
-    <t>http://www.amicuscapital.com</t>
-  </si>
-  <si>
-    <t>Amicus Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/amicus-capital-l.p.</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/amicus-capital</t>
-  </si>
-  <si>
-    <t>Amicus Capital was founded in 1998 by Bob Zipp and Jim Brock, and focuses on a wide range of capital investment.</t>
-  </si>
-  <si>
-    <t>Amicus Capital is a seed stage information technology investment fund. They invest in entrepreneurs who are developing innovative information technology solutions to problems that affect large numbers of businesses or consumers. They like to invest early, typically in the first funding round, together with angel investors, friends and family. Over the past decade, theyā€™ve invested in more than 60 seed stage information technology companies, many of which were subsequently funded by leading Silicon Valley venture capital firms and went public or were acquired by the most recognizable names in the industry.</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Private Equity, Seed</t>
-  </si>
-  <si>
-    <t>Venture Capital</t>
-  </si>
-  <si>
-    <t>https://9yards.vc</t>
-  </si>
-  <si>
-    <t>9Yards Capital</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/company/9yards-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/9yards-capital</t>
-  </si>
-  <si>
-    <t>9YC is a global investment firm that invests in tech enabled consumer and enterprise fintech and logistics companies at the growth stage.</t>
-  </si>
-  <si>
-    <t>9Yards Capital provides entrepreneurs with long-term, strategic capital and have a deep understanding of how governments and regulators operate. They take a focused approach to the industries they invest in and have a proven track record in financial services and logistics investing.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/9yardscapital1</t>
-  </si>
-  <si>
-    <t>info@9yardscapital.com</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Late Stage Venture, Private Equity, Secondary Market, Venture</t>
-  </si>
-  <si>
-    <t>Finance, Financial Services, FinTech, Logistics, Venture Capital</t>
-  </si>
-  <si>
-    <t>https://www.sanfrancisco.desafia.gob.es/</t>
-  </si>
-  <si>
-    <t>Desafia</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/desafia</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/spain-tech-center</t>
-  </si>
-  <si>
-    <t>Spain Tech Center is now Desafia</t>
-  </si>
-  <si>
-    <t>Spain Tech Center is sporting a new brand. We've changed our name to DesafĆ­a but you can rely on the same quality programs to get actionable tools to plan your US market entry and execute on it.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/DesafiaSF</t>
-  </si>
-  <si>
-    <t>info@desafia.us</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Non Equity Assistance, Seed</t>
-  </si>
-  <si>
-    <t>Collaboration, Incubators, Non Profit</t>
-  </si>
-  <si>
-    <t>http://www.altimeter.com</t>
-  </si>
-  <si>
-    <t>Altimeter Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/altimeter-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/altimeter-capital</t>
-  </si>
-  <si>
-    <t>Menlo Park, California, United States</t>
-  </si>
-  <si>
-    <t>Altimeter is a technology-focused investment firm managing a public equity fund and growth-stage private equity funds.</t>
-  </si>
-  <si>
-    <t>Altimeter Capital is a technology-focused investment firm based in Menlo Park, CA and Boston, MA. Altimeter manages a long/short public equity fund and growth-stage private capital funds.</t>
-  </si>
-  <si>
-    <t>info@altimeter.com</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Late Stage Venture, Post-Ipo, Private Equity, Venture</t>
-  </si>
-  <si>
-    <t>Business Development, Finance, Financial Services</t>
-  </si>
-  <si>
-    <t>http://1984.vc</t>
-  </si>
-  <si>
-    <t>1984 Ventures</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/1984-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/1984-ventures</t>
-  </si>
-  <si>
-    <t>1984 Ventures is an early-stage venture capital firm that seeks to invest in fintech, healthcare, SaaS, e-commerce, and consumer sectors.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/1984ventures</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Seed</t>
-  </si>
-  <si>
-    <t>Consumer, FinTech, PropTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.glynncapital.com</t>
-  </si>
-  <si>
-    <t>Glynn Capital Management</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/glynn-capital-management</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/glynn-capital-management</t>
-  </si>
-  <si>
-    <t>Glynn Capital Management focuses on investing in private and public technology growth companies.</t>
-  </si>
-  <si>
-    <t>Glynn Capital Management focuses on investing in leading private and public technology growth companies. Glynn Capital Management seeks to be long-term investors in a limited number of excellent companies with management teams, sustainable business models, and long-term growth potential.</t>
-  </si>
-  <si>
-    <t>venture@glynncapital.com</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Late Stage Venture, Venture</t>
-  </si>
-  <si>
-    <t>https://www.electriccapital.com/</t>
-  </si>
-  <si>
-    <t>Electric Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/electric-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/electric-capital</t>
-  </si>
-  <si>
-    <t>Electric Capital is a venture capital firm that focuses on the cryptocurrency, blockchain, fintech, and marketplaces industries.</t>
-  </si>
-  <si>
-    <t>Electric Capital is a crypto asset management firm. The company invests in tokens that are Programmable Money and invest in both liquid and illiquid tokens that are emerging stores of value and rooted in novel technology. Electric Capital is started by technology entrepreneurs, engineers, and successful investors. Prior to Electric Capital, they started six companies (five acquired), invested in 100+ technology startups with a cumulative market cap in the tens of billions, and served as executives at technology companies such as Facebook, Google, and Twitter. They have been investing personally in cryptocurrencies since 2013 and were early believers in Bitcoin, Ethereum, and Monero. Prior to Electric</t>
-  </si>
-  <si>
-    <t>https://twitter.com/electriccapital</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Initial Coin Offering, Late Stage Venture, Seed, Venture</t>
-  </si>
-  <si>
-    <t>Blockchain, Cryptocurrency, Financial Services, FinTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://montageventures.com/</t>
-  </si>
-  <si>
-    <t>Montage Ventures</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/montage-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/montage-ventures</t>
-  </si>
-  <si>
-    <t>Montage Ventures is a destination for start-ups looking for investment between Angel and Series A rounds.</t>
-  </si>
-  <si>
-    <t>Montage Ventures is an early stage venture capital firm actively investing in financial services, e-Commerce, marketplaces and healthcare start-ups.</t>
-  </si>
-  <si>
-    <t>http://twitter.com/montageventures</t>
-  </si>
-  <si>
-    <t>info@montageventures.com</t>
-  </si>
-  <si>
-    <t>FinTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.westlygroup.com</t>
-  </si>
-  <si>
-    <t>The Westly Group</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/the-westly-group/</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/the-westly-group</t>
-  </si>
-  <si>
-    <t>The Westly Group is a Venture Capital fund</t>
-  </si>
-  <si>
-    <t>The Westly Group focuses on the digitization and sustainability of energy, mobility, buildings, industrial tech, and cybersecurity.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/thewestlygroup</t>
-  </si>
-  <si>
-    <t>plans@westlygroup.com</t>
-  </si>
-  <si>
-    <t>Early Stage Venture, Late Stage Venture, Private Equity, Seed, Venture</t>
-  </si>
-  <si>
-    <t>CleanTech, Service Industry, Venture Capital</t>
-  </si>
-  <si>
-    <t>https://www.zeevventures.com/</t>
-  </si>
-  <si>
-    <t>Zeev Ventures</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/zeev-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/zeev-ventures</t>
-  </si>
-  <si>
-    <t>Zeev Ventures is an early-stage venture fund that invests in technology, financial, e-commerce, and consumer service sectors.</t>
-  </si>
-  <si>
-    <t>Zeev Ventures is an early-stage venture fund that invests in technology, financial, e-commerce, and consumer service sectors. Zeev Ventures was founded in 2015 and is based in Palo Alto, California.</t>
-  </si>
-  <si>
-    <t>Early Stage Venture</t>
-  </si>
-  <si>
-    <t>http://www.canvas.vc</t>
-  </si>
-  <si>
-    <t>Canvas Ventures</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com/company/canvas-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/canvas-venture-fund</t>
-  </si>
-  <si>
-    <t>Portola Valley, California, United States</t>
-  </si>
-  <si>
-    <t>Canvas Ventures is an early-growth fund focusing on AI transforming digital health and fintech.</t>
-  </si>
-  <si>
-    <t>Canvas Ventures is an early-growth fund focusing on AI transforming digital health and fintech. Canvas invests in companies at the inflection point of growth, and partners leverage their go-to-market expertise to help Series A and B companies get to the next stage and beyond. With a background in digital health, fintech, and AI, the team at Canvas focuses on companies that solve core problems in these industries and can become billion-dollar exits. All partners are former operators and entrepreneurs and have track records in venture. Rebecca Lynn has been on the Midas List five times. Canvas was founded in 2013, and the third fund is $350M.</t>
-  </si>
-  <si>
-    <t>http://twitter.com/CanvasVC</t>
-  </si>
-  <si>
-    <t>info@canvas.vc</t>
-  </si>
-  <si>
-    <t>Finance, Financial Services, FinTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.GILMAN</t>
-  </si>
-  <si>
-    <t>Alsop Louie Partners</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/alsop-louie-partners</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/alsop-louie-partners</t>
-  </si>
-  <si>
-    <t>Alsop Louie Partners is a risk-oriented technology venture capital firm that offers financial services to early stage companies.</t>
-  </si>
-  <si>
-    <t>"Above all else, we are focused on identifying the most promising entrepreneurs. We are focused on working with entrepreneurs starting information technology companies: in traditional VC parlance, early stage technology investments. Within that sector, we would prefer to follow the instincts and experience of the entrepreneurs and invest in all kinds of technology-based ventures. We believe, however, that it is not the job of venture investors to fund companies that require large amounts of capital, more than $20M, to create a stable, validated business operation. So we're much more interested in enterprises that don't require much capital to prove their point and entrepreneurs who are more interested in creating more value than raising more venture capital." Source: [Alsop Louie Partners' website](http://alsop-louie.com/about/)</t>
-  </si>
-  <si>
-    <t>http://twitter.com/alsoplouie</t>
-  </si>
-  <si>
-    <t>Convertible Note, Early Stage Venture, Late Stage Venture, Post-Ipo, Seed, Venture</t>
-  </si>
-  <si>
-    <t>Financial Services, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.scrum.vc</t>
-  </si>
-  <si>
-    <t>Scrum Ventures</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/scrum-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/scrum-ventures</t>
-  </si>
-  <si>
-    <t>Scrum Ventures is an early-stage venture firm that helps startups and corporations innovate together.</t>
-  </si>
-  <si>
-    <t>Scrum Ventures is an early-stage venture capital firm with a powerful network in Asia. From our base in Silicon Valley, they seek to invest in entrepreneurs who are innovating in a variety of sectors. They are uniquely positioned to help portfolio companies looking to expand internationally accelerate their growth in Asia. Scrum Ventures typically invests between $100,000 to $1 million. Scrum Ventures recently launched Scrum Studios that include innovative corporations such as Panasonic, Nintendo, and Dentsu.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ScrumVentures</t>
-  </si>
-  <si>
-    <t>contact@scrum.vc</t>
-  </si>
-  <si>
-    <t>Angel Investment, Internet of Things, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://capricornllc.com</t>
-  </si>
-  <si>
-    <t>Capricorn Investment Group</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/capricorn-investment-group</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/capricorn-investment-group</t>
-  </si>
-  <si>
-    <t>Capricorn Investment Group invests in the public equity, fixed income, private equity, and real assets markets.</t>
-  </si>
-  <si>
-    <t>Capricorn Investment Group was created in 2000 to demonstrate the promise that it is possible to invest profitably while driving sustainable positive change. Today Capricorn manages the assets for Jeff Skoll, the Skoll Foundation, and others who strive for extraordinary investment results by leveraging market forces to accelerate large-scale impact. The firm invests in the public equity, fixed income, private equity, and real assets markets across the globe. Capricorn has offices in Palo Alto, California, and New York, New York.</t>
-  </si>
-  <si>
-    <t>Debt, Early Stage Venture, Late Stage Venture, Post-Ipo, Seed, Venture</t>
-  </si>
-  <si>
-    <t>Finance, FinTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.transmediacapital.com</t>
-  </si>
-  <si>
-    <t>Transmedia Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/transmedia-capital/</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/transmedia-capital</t>
-  </si>
-  <si>
-    <t>Transmedia Capital is one of the leading micro funds in Silicon Valley.</t>
-  </si>
-  <si>
-    <t>Transmedia Capital is a top performing technology venture fund providing deep domain expertise, operating experience, and advisory relationships.</t>
-  </si>
-  <si>
-    <t>http://twitter.com/transmediacap</t>
-  </si>
-  <si>
-    <t>info@transmediacapital.com</t>
-  </si>
-  <si>
-    <t>Finance, Venture Capital</t>
-  </si>
-  <si>
-    <t>https://shrug.vc</t>
-  </si>
-  <si>
-    <t>Shrug Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/shrug-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/shrug-capital</t>
-  </si>
-  <si>
-    <t>Shrug Capital is a Venture capital firm that invests in consumer-based startups.</t>
-  </si>
-  <si>
-    <t>Shrug Capital is a Venture capital firm that invests in consumer-based startups. Shrug Capital was founded in 2018 and headquartered in San Francisco, California.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ShrugCap</t>
-  </si>
-  <si>
-    <t>Consumer, Finance, Financial Services, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://defy.vc</t>
-  </si>
-  <si>
-    <t>Defy.vc</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/defy-vc</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/defy-partners</t>
-  </si>
-  <si>
-    <t>San Mateo, California, United States</t>
-  </si>
-  <si>
-    <t>Defy is a seed-stage venture fund focused on emerging, high-potential opportunities.</t>
-  </si>
-  <si>
-    <t>Defy is a seed-stage venture fund focused on emerging high-potential opportunities. It is driven by a passion for working closely with entrepreneurs, especially through the transformative time after seed funding. The firm invests in people and in their conviction and talent for creating real change. Defy was founded in 2016 by Neil Sequeira and Trae Vassallo and is based in San Mateo, California, United States.</t>
-  </si>
-  <si>
-    <t>https://www.twitter.com/defyVc</t>
-  </si>
-  <si>
-    <t>hello@defy.vc</t>
-  </si>
-  <si>
-    <t>Business Development, Financial Services, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://fresco.vc/</t>
-  </si>
-  <si>
-    <t>Fresco Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/fresco-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/fresco-capital-advisors</t>
-  </si>
-  <si>
-    <t>Fresco Capital is a global early stage VC firm with the Managing Partners based in San Francisco, Tokyo, and Hong Kong.</t>
-  </si>
-  <si>
-    <t>Investing at the intersection of people and technology.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/frescocap</t>
-  </si>
-  <si>
-    <t>info@fresco.vc</t>
-  </si>
-  <si>
-    <t>Education, Financial Services, Information Technology, Internet, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.corevc.com</t>
-  </si>
-  <si>
-    <t>Core Innovation Capital</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com/company/core-innovation-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/core-innovation-capital</t>
-  </si>
-  <si>
-    <t>Core Innovation Capital is a venture capital firm investing in companies committed to empowering small businesses.</t>
-  </si>
-  <si>
-    <t>Core Innovation Capital is a fintech venture capital firm investing in companies committed to empowering small businesses and everyday Americans. Their portfolio companies deliver more efficient, well-designed solutions that save people time and money, create upward mobility, and scale broadlyā€ā€”ā€driving both profit margins and consumer value.</t>
-  </si>
-  <si>
-    <t>http://twitter.com/therealcorevc</t>
-  </si>
-  <si>
-    <t>info@corevc.com</t>
-  </si>
-  <si>
-    <t>Financial Services, FinTech, InsurTech, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://www.denovovc.com</t>
-  </si>
-  <si>
-    <t>DeNovo Ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/denovo-ventures</t>
-  </si>
-  <si>
-    <t>Saratoga, California, United States</t>
-  </si>
-  <si>
-    <t>DeNovo Ventures was formed in 2000 by seasoned investors and experienced medical device entrepreneurs who sought to share the lessons</t>
-  </si>
-  <si>
-    <t>DeNovo Ventures was formed in 2000 by seasoned investors and experienced medical device entrepreneurs who sought to share the lessons learned from a history of successful investing and building successful companies. They believed that their unique combination of skills and perspectives could help entrepreneurs to build companies which would have significant clinical impact and generate superior returns. Seven years later, this belief continues to hold true, demonstrated by investment success in selected medical device and biotechnology companies. With $650 million under management, De Novo has made more than 40 investments in medical devices and biotechnology across three funds. They invest in all stages of enterprise development and growth Ć¢ā‚¬ā€ from early stage to late stage. The unique background of leading companies as entrepreneurs and operating executives from start to exit enables us to advise entrepreneurs and management teams over the full life cycle of the company.</t>
-  </si>
-  <si>
-    <t>Debt, Early Stage Venture, Late Stage Venture, Private Equity, Seed, Venture</t>
-  </si>
-  <si>
-    <t>Finance, Financial Services</t>
-  </si>
-  <si>
-    <t>http://www.ataventures.com</t>
-  </si>
-  <si>
-    <t>ATA Ventures</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com/company/ata-ventures</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/ata-ventures</t>
-  </si>
-  <si>
-    <t>Redwood City, California, United States</t>
-  </si>
-  <si>
-    <t>ATA Ventures is a venture capital firm focused on seeking out early stage private companies which appear to offer above average prospects</t>
-  </si>
-  <si>
-    <t>[ATA Ventures](http://www.ataventures.com) is a venture capital firm focused on seeking out early stage private companies which appear to offer above average prospects for capital growth.</t>
-  </si>
-  <si>
-    <t>contact@ataventures.com</t>
-  </si>
-  <si>
-    <t>Debt, Early Stage Venture, Late Stage Venture, Seed</t>
-  </si>
-  <si>
-    <t>https://www.xyz.vc/</t>
-  </si>
-  <si>
-    <t>XYZ Venture Capital</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/xyz-venture-capital</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/xyz-ventures-33d5</t>
-  </si>
-  <si>
-    <t>XYZ Ventures is an early-stage venture capital firm that supports startups build companies in the fintech and insurtech industries.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/XYZ_VC</t>
-  </si>
-  <si>
-    <t>Info@xyzvc.com</t>
-  </si>
-  <si>
-    <t>http://www.zettavp.com/</t>
-  </si>
-  <si>
-    <t>Zetta Venture Partners</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/zetta-venture-partners/</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/zetta-venture-partners</t>
-  </si>
-  <si>
-    <t>Zetta Venture Partners is the first fund focused on intelligent software.</t>
-  </si>
-  <si>
-    <t>Zetta Venture Partners is the first focused fund committed to delivering exceptional returns from the high-growth analytics market. The firm, founded by industry veteran Mark Gorenberg, launched in 2013. With offices in San Francisco and Utah, and a worldwide network of partners, entrepreneurs and investors, Zetta Venture Partners is at the forefront of the next huge and long-lasting investment opportunity. Focused funds deliver exceptional returns. In fact, over the past 10 years, focused funds have outperformed all funds by 72 basis points, according to the National Venture Capital Association. As an analytics-only fund, Zetta delivers the expertise, network and portfolio to create ongoing, exceptional deal flow.</t>
-  </si>
-  <si>
-    <t>https://www.twitter.com/zettaventures</t>
-  </si>
-  <si>
-    <t>info@zettavp.com</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence (AI), Finance, FinTech, Incubators, Venture Capital</t>
-  </si>
-  <si>
-    <t>http://upsidevc.com/</t>
-  </si>
-  <si>
-    <t>Upside Partnership</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/company/upside-partnerhsip</t>
-  </si>
-  <si>
-    <t>https://www.crunchbase.com/organization/upside-partnership</t>
-  </si>
-  <si>
-    <t>Mill Valley, California, United States</t>
-  </si>
-  <si>
-    <t>Upside Partnership is a venture capital firm that provides seed-stage investment to founders creating high-profile companies.</t>
-  </si>
-  <si>
-    <t>Upside Partnership is a venture capital firm that provides seed-stage investment to founders creating high-profile companies. The firm was founded by Kent Goldman in July, 2014 and is headquartered in Mill Valley, California, United States.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/upsidevc</t>
-  </si>
-  <si>
-    <t>info@upsidevc.com</t>
-  </si>
-  <si>
-    <t>Financial Services, Small and Medium Businesses, Venture Capital</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1668,57 +1001,23 @@
       <c r="BC5" s="3"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="9">
-        <v>104</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="9">
-        <v>69</v>
-      </c>
-      <c r="M6" s="9">
-        <v>14</v>
-      </c>
-      <c r="N6" s="9">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -1759,53 +1058,23 @@
       <c r="BC6" s="10"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="6">
-        <v>104</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="6">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="6">
-        <v>80</v>
-      </c>
-      <c r="M7" s="6">
-        <v>3</v>
-      </c>
-      <c r="N7" s="6">
-        <v>3</v>
-      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1846,57 +1115,23 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="6">
-        <v>104</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="6">
-        <v>88</v>
-      </c>
-      <c r="M8" s="6">
-        <v>4</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1937,57 +1172,23 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="6">
-        <v>103</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="6">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="6">
-        <v>102</v>
-      </c>
-      <c r="M9" s="6">
-        <v>96</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -2028,55 +1229,23 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="6">
-        <v>103</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="6">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="6">
-        <v>73</v>
-      </c>
-      <c r="M10" s="6">
-        <v>45</v>
-      </c>
-      <c r="N10" s="6">
-        <v>17</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2117,53 +1286,23 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="6">
-        <v>102</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="6">
-        <v>65</v>
-      </c>
-      <c r="M11" s="6">
-        <v>22</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2204,55 +1343,23 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="6">
-        <v>102</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="6">
-        <v>34</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="6">
-        <v>70</v>
-      </c>
-      <c r="M12" s="6">
-        <v>14</v>
-      </c>
-      <c r="N12" s="6">
-        <v>15</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2293,53 +1400,23 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="6">
-        <v>102</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="6">
-        <v>82</v>
-      </c>
-      <c r="M13" s="6">
-        <v>48</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2380,57 +1457,23 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="6">
-        <v>101</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="6">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="6">
-        <v>71</v>
-      </c>
-      <c r="M14" s="6">
-        <v>19</v>
-      </c>
-      <c r="N14" s="6">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2471,57 +1514,23 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="6">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="6">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" s="6">
-        <v>53</v>
-      </c>
-      <c r="M15" s="6">
-        <v>28</v>
-      </c>
-      <c r="N15" s="6">
-        <v>6</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2562,53 +1571,23 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="6">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="6">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>156</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="6">
-        <v>49</v>
-      </c>
-      <c r="M16" s="6">
-        <v>56</v>
-      </c>
-      <c r="N16" s="6">
-        <v>2</v>
-      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2649,57 +1628,23 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="6">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="6">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="6">
-        <v>58</v>
-      </c>
-      <c r="M17" s="6">
-        <v>47</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2740,55 +1685,23 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="6">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="6">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="6">
-        <v>66</v>
-      </c>
-      <c r="M18" s="6">
-        <v>36</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2829,57 +1742,23 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="6">
-        <v>98</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="6">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="6">
-        <v>77</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2920,53 +1799,23 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="6">
-        <v>98</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="6">
-        <v>19</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>191</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="6">
-        <v>58</v>
-      </c>
-      <c r="M20" s="6">
-        <v>21</v>
-      </c>
-      <c r="N20" s="6">
-        <v>8</v>
-      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>193</v>
-      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3007,57 +1856,23 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="6">
-        <v>97</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="6">
-        <v>35</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L21" s="6">
-        <v>73</v>
-      </c>
-      <c r="M21" s="6">
-        <v>3</v>
-      </c>
-      <c r="N21" s="6">
-        <v>4</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3098,53 +1913,23 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="6">
-        <v>97</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="6">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="6">
-        <v>90</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -3185,57 +1970,23 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="6">
-        <v>96</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="6">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L23" s="6">
-        <v>65</v>
-      </c>
-      <c r="M23" s="6">
-        <v>38</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3276,57 +2027,23 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="6">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="6">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L24" s="6">
-        <v>70</v>
-      </c>
-      <c r="M24" s="6">
-        <v>3</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>229</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -3367,57 +2084,23 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="6">
-        <v>96</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" s="6">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L25" s="6">
-        <v>62</v>
-      </c>
-      <c r="M25" s="6">
-        <v>16</v>
-      </c>
-      <c r="N25" s="6">
-        <v>3</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -3458,51 +2141,23 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="6">
-        <v>96</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="6">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>244</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="6">
-        <v>39</v>
-      </c>
-      <c r="M26" s="6">
-        <v>17</v>
-      </c>
-      <c r="N26" s="6">
-        <v>6</v>
-      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3543,55 +2198,23 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="6">
-        <v>95</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27" s="6">
-        <v>23</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="6">
-        <v>44</v>
-      </c>
-      <c r="M27" s="6">
-        <v>22</v>
-      </c>
-      <c r="N27" s="6">
-        <v>3</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -3632,53 +2255,23 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="6">
-        <v>95</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="L28" s="6">
-        <v>65</v>
-      </c>
-      <c r="M28" s="6">
-        <v>25</v>
-      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -3718,58 +2311,24 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="3"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="6">
-        <v>95</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F29" s="6">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L29" s="6">
-        <v>55</v>
-      </c>
-      <c r="M29" s="6">
-        <v>38</v>
-      </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>271</v>
-      </c>
+    <row r="29" spans="1:55" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3810,55 +2369,23 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="6">
-        <v>95</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F30" s="6">
-        <v>18</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" s="6">
-        <v>66</v>
-      </c>
-      <c r="M30" s="6">
-        <v>2</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>281</v>
-      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -6178,7 +4705,7 @@
       <c r="BB70" s="7"/>
       <c r="BC70" s="3"/>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6235,7 +4762,7 @@
       <c r="BB71" s="7"/>
       <c r="BC71" s="3"/>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -6292,7 +4819,7 @@
       <c r="BB72" s="7"/>
       <c r="BC72" s="3"/>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="4"/>
@@ -6349,7 +4876,7 @@
       <c r="BB73" s="7"/>
       <c r="BC73" s="3"/>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="4"/>
@@ -6406,7 +4933,7 @@
       <c r="BB74" s="7"/>
       <c r="BC74" s="3"/>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="4"/>
@@ -6463,7 +4990,7 @@
       <c r="BB75" s="3"/>
       <c r="BC75" s="3"/>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="4"/>
@@ -6520,7 +5047,7 @@
       <c r="BB76" s="7"/>
       <c r="BC76" s="3"/>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="4"/>
@@ -6577,7 +5104,7 @@
       <c r="BB77" s="7"/>
       <c r="BC77" s="3"/>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="4"/>
@@ -6634,7 +5161,7 @@
       <c r="BB78" s="7"/>
       <c r="BC78" s="3"/>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="4"/>
@@ -6691,7 +5218,7 @@
       <c r="BB79" s="7"/>
       <c r="BC79" s="3"/>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="4"/>
@@ -6748,7 +5275,7 @@
       <c r="BB80" s="7"/>
       <c r="BC80" s="3"/>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="4"/>
@@ -6805,7 +5332,7 @@
       <c r="BB81" s="7"/>
       <c r="BC81" s="3"/>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="4"/>
@@ -6862,7 +5389,7 @@
       <c r="BB82" s="7"/>
       <c r="BC82" s="3"/>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="4"/>
@@ -6919,7 +5446,7 @@
       <c r="BB83" s="7"/>
       <c r="BC83" s="3"/>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="4"/>
@@ -6976,7 +5503,7 @@
       <c r="BB84" s="7"/>
       <c r="BC84" s="3"/>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="4"/>
@@ -7033,7 +5560,7 @@
       <c r="BB85" s="7"/>
       <c r="BC85" s="3"/>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="4"/>
@@ -7090,7 +5617,7 @@
       <c r="BB86" s="7"/>
       <c r="BC86" s="3"/>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="4"/>
@@ -7147,7 +5674,7 @@
       <c r="BB87" s="7"/>
       <c r="BC87" s="3"/>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
@@ -7204,7 +5731,7 @@
       <c r="BB88" s="7"/>
       <c r="BC88" s="3"/>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
@@ -7261,7 +5788,7 @@
       <c r="BB89" s="7"/>
       <c r="BC89" s="3"/>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="4"/>
@@ -7318,7 +5845,7 @@
       <c r="BB90" s="7"/>
       <c r="BC90" s="3"/>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -7375,7 +5902,7 @@
       <c r="BB91" s="7"/>
       <c r="BC91" s="3"/>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="4"/>
@@ -7432,7 +5959,7 @@
       <c r="BB92" s="7"/>
       <c r="BC92" s="3"/>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="4"/>
@@ -7489,7 +6016,7 @@
       <c r="BB93" s="3"/>
       <c r="BC93" s="3"/>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="4"/>
@@ -7546,7 +6073,7 @@
       <c r="BB94" s="7"/>
       <c r="BC94" s="3"/>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="4"/>
@@ -7603,7 +6130,7 @@
       <c r="BB95" s="7"/>
       <c r="BC95" s="3"/>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="4"/>
@@ -7660,7 +6187,7 @@
       <c r="BB96" s="3"/>
       <c r="BC96" s="3"/>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -7717,7 +6244,7 @@
       <c r="BB97" s="7"/>
       <c r="BC97" s="3"/>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -7774,7 +6301,7 @@
       <c r="BB98" s="7"/>
       <c r="BC98" s="3"/>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="4"/>
@@ -7831,7 +6358,7 @@
       <c r="BB99" s="7"/>
       <c r="BC99" s="3"/>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="4"/>
@@ -7888,7 +6415,7 @@
       <c r="BB100" s="7"/>
       <c r="BC100" s="3"/>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
@@ -7945,7 +6472,7 @@
       <c r="BB101" s="7"/>
       <c r="BC101" s="3"/>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
@@ -8002,7 +6529,7 @@
       <c r="BB102" s="7"/>
       <c r="BC102" s="3"/>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
@@ -8059,7 +6586,7 @@
       <c r="BB103" s="7"/>
       <c r="BC103" s="3"/>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -8116,7 +6643,7 @@
       <c r="BB104" s="7"/>
       <c r="BC104" s="3"/>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
@@ -8173,7 +6700,7 @@
       <c r="BB105" s="7"/>
       <c r="BC105" s="3"/>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
@@ -8230,7 +6757,7 @@
       <c r="BB106" s="7"/>
       <c r="BC106" s="3"/>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
@@ -8287,7 +6814,7 @@
       <c r="BB107" s="7"/>
       <c r="BC107" s="3"/>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
@@ -8344,7 +6871,7 @@
       <c r="BB108" s="7"/>
       <c r="BC108" s="3"/>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
@@ -8401,7 +6928,7 @@
       <c r="BB109" s="7"/>
       <c r="BC109" s="3"/>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
@@ -8458,7 +6985,7 @@
       <c r="BB110" s="3"/>
       <c r="BC110" s="3"/>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -8515,7 +7042,7 @@
       <c r="BB111" s="7"/>
       <c r="BC111" s="3"/>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
@@ -8572,7 +7099,7 @@
       <c r="BB112" s="7"/>
       <c r="BC112" s="3"/>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
@@ -8629,7 +7156,7 @@
       <c r="BB113" s="7"/>
       <c r="BC113" s="3"/>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
@@ -8686,7 +7213,7 @@
       <c r="BB114" s="7"/>
       <c r="BC114" s="3"/>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
@@ -8743,7 +7270,7 @@
       <c r="BB115" s="7"/>
       <c r="BC115" s="3"/>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
@@ -8800,7 +7327,7 @@
       <c r="BB116" s="7"/>
       <c r="BC116" s="3"/>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -8857,7 +7384,7 @@
       <c r="BB117" s="7"/>
       <c r="BC117" s="3"/>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
@@ -8914,7 +7441,7 @@
       <c r="BB118" s="7"/>
       <c r="BC118" s="3"/>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
@@ -8971,7 +7498,7 @@
       <c r="BB119" s="7"/>
       <c r="BC119" s="3"/>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
@@ -9028,7 +7555,7 @@
       <c r="BB120" s="7"/>
       <c r="BC120" s="3"/>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -9085,7 +7612,7 @@
       <c r="BB121" s="7"/>
       <c r="BC121" s="3"/>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
@@ -9142,7 +7669,7 @@
       <c r="BB122" s="7"/>
       <c r="BC122" s="3"/>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
@@ -9199,7 +7726,7 @@
       <c r="BB123" s="7"/>
       <c r="BC123" s="3"/>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
@@ -9256,7 +7783,7 @@
       <c r="BB124" s="7"/>
       <c r="BC124" s="3"/>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
@@ -9313,7 +7840,7 @@
       <c r="BB125" s="7"/>
       <c r="BC125" s="3"/>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -9370,7 +7897,7 @@
       <c r="BB126" s="7"/>
       <c r="BC126" s="3"/>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
@@ -9427,7 +7954,7 @@
       <c r="BB127" s="7"/>
       <c r="BC127" s="3"/>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
@@ -9484,7 +8011,7 @@
       <c r="BB128" s="7"/>
       <c r="BC128" s="3"/>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
@@ -9541,7 +8068,7 @@
       <c r="BB129" s="7"/>
       <c r="BC129" s="3"/>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
@@ -9598,7 +8125,7 @@
       <c r="BB130" s="7"/>
       <c r="BC130" s="3"/>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
@@ -9655,7 +8182,7 @@
       <c r="BB131" s="7"/>
       <c r="BC131" s="3"/>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="4"/>
@@ -9712,7 +8239,7 @@
       <c r="BB132" s="7"/>
       <c r="BC132" s="3"/>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
@@ -9769,7 +8296,7 @@
       <c r="BB133" s="7"/>
       <c r="BC133" s="3"/>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
@@ -9826,7 +8353,7 @@
       <c r="BB134" s="7"/>
       <c r="BC134" s="3"/>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
@@ -9883,7 +8410,7 @@
       <c r="BB135" s="3"/>
       <c r="BC135" s="3"/>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
@@ -9940,7 +8467,7 @@
       <c r="BB136" s="3"/>
       <c r="BC136" s="3"/>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
@@ -9997,7 +8524,7 @@
       <c r="BB137" s="7"/>
       <c r="BC137" s="3"/>
     </row>
-    <row r="138" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="3"/>
@@ -10054,7 +8581,7 @@
       <c r="BB138" s="7"/>
       <c r="BC138" s="3"/>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
@@ -10111,7 +8638,7 @@
       <c r="BB139" s="7"/>
       <c r="BC139" s="3"/>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
@@ -10168,7 +8695,7 @@
       <c r="BB140" s="7"/>
       <c r="BC140" s="3"/>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
@@ -10225,7 +8752,7 @@
       <c r="BB141" s="7"/>
       <c r="BC141" s="3"/>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
@@ -10282,7 +8809,7 @@
       <c r="BB142" s="7"/>
       <c r="BC142" s="3"/>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
@@ -10339,7 +8866,7 @@
       <c r="BB143" s="3"/>
       <c r="BC143" s="3"/>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="3"/>
@@ -10396,7 +8923,7 @@
       <c r="BB144" s="3"/>
       <c r="BC144" s="3"/>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
@@ -10453,7 +8980,7 @@
       <c r="BB145" s="7"/>
       <c r="BC145" s="3"/>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
@@ -10510,7 +9037,7 @@
       <c r="BB146" s="7"/>
       <c r="BC146" s="3"/>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
@@ -10567,7 +9094,7 @@
       <c r="BB147" s="7"/>
       <c r="BC147" s="3"/>
     </row>
-    <row r="148" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
@@ -10624,7 +9151,7 @@
       <c r="BB148" s="7"/>
       <c r="BC148" s="3"/>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
@@ -10681,7 +9208,7 @@
       <c r="BB149" s="3"/>
       <c r="BC149" s="3"/>
     </row>
-    <row r="150" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
@@ -10738,7 +9265,7 @@
       <c r="BB150" s="3"/>
       <c r="BC150" s="3"/>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
@@ -10795,7 +9322,7 @@
       <c r="BB151" s="7"/>
       <c r="BC151" s="3"/>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
@@ -10852,7 +9379,7 @@
       <c r="BB152" s="7"/>
       <c r="BC152" s="3"/>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
@@ -10909,7 +9436,7 @@
       <c r="BB153" s="7"/>
       <c r="BC153" s="3"/>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
@@ -10966,7 +9493,7 @@
       <c r="BB154" s="7"/>
       <c r="BC154" s="3"/>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="3"/>
@@ -11023,7 +9550,7 @@
       <c r="BB155" s="7"/>
       <c r="BC155" s="3"/>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="3"/>
@@ -11080,7 +9607,7 @@
       <c r="BB156" s="3"/>
       <c r="BC156" s="3"/>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="4"/>
@@ -11137,7 +9664,7 @@
       <c r="BB157" s="7"/>
       <c r="BC157" s="3"/>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="4"/>
@@ -11194,7 +9721,7 @@
       <c r="BB158" s="7"/>
       <c r="BC158" s="3"/>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="4"/>
@@ -11251,7 +9778,7 @@
       <c r="BB159" s="7"/>
       <c r="BC159" s="3"/>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="4"/>
@@ -11308,7 +9835,7 @@
       <c r="BB160" s="3"/>
       <c r="BC160" s="3"/>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="4"/>
@@ -11365,7 +9892,7 @@
       <c r="BB161" s="7"/>
       <c r="BC161" s="3"/>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="4"/>
@@ -11422,7 +9949,7 @@
       <c r="BB162" s="7"/>
       <c r="BC162" s="3"/>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="4"/>
@@ -11479,7 +10006,7 @@
       <c r="BB163" s="7"/>
       <c r="BC163" s="3"/>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="4"/>
@@ -11536,7 +10063,7 @@
       <c r="BB164" s="7"/>
       <c r="BC164" s="3"/>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="4"/>
@@ -11593,7 +10120,7 @@
       <c r="BB165" s="3"/>
       <c r="BC165" s="3"/>
     </row>
-    <row r="166" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="3"/>
@@ -11650,7 +10177,7 @@
       <c r="BB166" s="3"/>
       <c r="BC166" s="3"/>
     </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="14"/>
       <c r="C167" s="4"/>
@@ -11707,7 +10234,7 @@
       <c r="BB167" s="7"/>
       <c r="BC167" s="3"/>
     </row>
-    <row r="168" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
@@ -11764,7 +10291,7 @@
       <c r="BB168" s="3"/>
       <c r="BC168" s="3"/>
     </row>
-    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
@@ -11821,7 +10348,7 @@
       <c r="BB169" s="3"/>
       <c r="BC169" s="3"/>
     </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="3"/>
@@ -11878,7 +10405,7 @@
       <c r="BB170" s="7"/>
       <c r="BC170" s="3"/>
     </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="4"/>
@@ -11935,7 +10462,7 @@
       <c r="BB171" s="7"/>
       <c r="BC171" s="3"/>
     </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="4"/>
@@ -11992,7 +10519,7 @@
       <c r="BB172" s="7"/>
       <c r="BC172" s="3"/>
     </row>
-    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
@@ -12049,7 +10576,7 @@
       <c r="BB173" s="7"/>
       <c r="BC173" s="3"/>
     </row>
-    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="4"/>
@@ -12106,7 +10633,7 @@
       <c r="BB174" s="3"/>
       <c r="BC174" s="3"/>
     </row>
-    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="4"/>
@@ -12163,7 +10690,7 @@
       <c r="BB175" s="7"/>
       <c r="BC175" s="3"/>
     </row>
-    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="4"/>
@@ -12220,7 +10747,7 @@
       <c r="BB176" s="3"/>
       <c r="BC176" s="3"/>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -12277,7 +10804,7 @@
       <c r="BB177" s="3"/>
       <c r="BC177" s="3"/>
     </row>
-    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
@@ -12334,7 +10861,7 @@
       <c r="BB178" s="7"/>
       <c r="BC178" s="3"/>
     </row>
-    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
@@ -12391,7 +10918,7 @@
       <c r="BB179" s="7"/>
       <c r="BC179" s="3"/>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
@@ -12448,7 +10975,7 @@
       <c r="BB180" s="3"/>
       <c r="BC180" s="3"/>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
@@ -12505,7 +11032,7 @@
       <c r="BB181" s="7"/>
       <c r="BC181" s="3"/>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
@@ -12562,7 +11089,7 @@
       <c r="BB182" s="7"/>
       <c r="BC182" s="3"/>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="4"/>
@@ -12619,7 +11146,7 @@
       <c r="BB183" s="7"/>
       <c r="BC183" s="3"/>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="3"/>
@@ -12676,7 +11203,7 @@
       <c r="BB184" s="7"/>
       <c r="BC184" s="3"/>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
@@ -12733,7 +11260,7 @@
       <c r="BB185" s="7"/>
       <c r="BC185" s="3"/>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="4"/>
@@ -12790,7 +11317,7 @@
       <c r="BB186" s="7"/>
       <c r="BC186" s="3"/>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="4"/>
@@ -12847,7 +11374,7 @@
       <c r="BB187" s="7"/>
       <c r="BC187" s="3"/>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="4"/>
@@ -12904,7 +11431,7 @@
       <c r="BB188" s="7"/>
       <c r="BC188" s="3"/>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="4"/>
@@ -12961,7 +11488,7 @@
       <c r="BB189" s="3"/>
       <c r="BC189" s="3"/>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="4"/>
@@ -13018,7 +11545,7 @@
       <c r="BB190" s="7"/>
       <c r="BC190" s="3"/>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
@@ -13075,7 +11602,7 @@
       <c r="BB191" s="7"/>
       <c r="BC191" s="3"/>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
@@ -13132,7 +11659,7 @@
       <c r="BB192" s="7"/>
       <c r="BC192" s="3"/>
     </row>
-    <row r="193" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
@@ -13189,7 +11716,7 @@
       <c r="BB193" s="7"/>
       <c r="BC193" s="3"/>
     </row>
-    <row r="194" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
@@ -13246,7 +11773,7 @@
       <c r="BB194" s="7"/>
       <c r="BC194" s="3"/>
     </row>
-    <row r="195" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
@@ -13303,7 +11830,7 @@
       <c r="BB195" s="7"/>
       <c r="BC195" s="3"/>
     </row>
-    <row r="196" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
@@ -13360,7 +11887,7 @@
       <c r="BB196" s="7"/>
       <c r="BC196" s="3"/>
     </row>
-    <row r="197" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
@@ -13417,7 +11944,7 @@
       <c r="BB197" s="7"/>
       <c r="BC197" s="3"/>
     </row>
-    <row r="198" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
@@ -13474,7 +12001,7 @@
       <c r="BB198" s="7"/>
       <c r="BC198" s="3"/>
     </row>
-    <row r="199" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
@@ -13531,7 +12058,7 @@
       <c r="BB199" s="7"/>
       <c r="BC199" s="3"/>
     </row>
-    <row r="200" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="4"/>
@@ -13588,7 +12115,7 @@
       <c r="BB200" s="7"/>
       <c r="BC200" s="3"/>
     </row>
-    <row r="201" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="4"/>
@@ -13645,7 +12172,7 @@
       <c r="BB201" s="3"/>
       <c r="BC201" s="3"/>
     </row>
-    <row r="202" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="4"/>
@@ -13702,7 +12229,7 @@
       <c r="BB202" s="7"/>
       <c r="BC202" s="3"/>
     </row>
-    <row r="203" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="3"/>
@@ -13759,7 +12286,7 @@
       <c r="BB203" s="7"/>
       <c r="BC203" s="3"/>
     </row>
-    <row r="204" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="3"/>
@@ -13816,7 +12343,7 @@
       <c r="BB204" s="7"/>
       <c r="BC204" s="3"/>
     </row>
-    <row r="205" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="3"/>
@@ -13873,7 +12400,7 @@
       <c r="BB205" s="7"/>
       <c r="BC205" s="3"/>
     </row>
-    <row r="206" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="3"/>
@@ -13930,7 +12457,7 @@
       <c r="BB206" s="7"/>
       <c r="BC206" s="3"/>
     </row>
-    <row r="207" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="4"/>
@@ -13987,7 +12514,7 @@
       <c r="BB207" s="3"/>
       <c r="BC207" s="3"/>
     </row>
-    <row r="208" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="4"/>
@@ -14044,7 +12571,7 @@
       <c r="BB208" s="7"/>
       <c r="BC208" s="3"/>
     </row>
-    <row r="209" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="4"/>
@@ -14101,7 +12628,7 @@
       <c r="BB209" s="7"/>
       <c r="BC209" s="3"/>
     </row>
-    <row r="210" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="4"/>
@@ -14158,7 +12685,7 @@
       <c r="BB210" s="3"/>
       <c r="BC210" s="3"/>
     </row>
-    <row r="211" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="4"/>
@@ -14215,7 +12742,7 @@
       <c r="BB211" s="7"/>
       <c r="BC211" s="3"/>
     </row>
-    <row r="212" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="4"/>
@@ -14272,7 +12799,7 @@
       <c r="BB212" s="7"/>
       <c r="BC212" s="3"/>
     </row>
-    <row r="213" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="3"/>
@@ -14329,7 +12856,7 @@
       <c r="BB213" s="3"/>
       <c r="BC213" s="3"/>
     </row>
-    <row r="214" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="4"/>
@@ -14386,7 +12913,7 @@
       <c r="BB214" s="7"/>
       <c r="BC214" s="3"/>
     </row>
-    <row r="215" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="4"/>
@@ -14443,7 +12970,7 @@
       <c r="BB215" s="7"/>
       <c r="BC215" s="3"/>
     </row>
-    <row r="216" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="4"/>
@@ -14500,7 +13027,7 @@
       <c r="BB216" s="3"/>
       <c r="BC216" s="3"/>
     </row>
-    <row r="217" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="4"/>
@@ -14557,7 +13084,7 @@
       <c r="BB217" s="7"/>
       <c r="BC217" s="3"/>
     </row>
-    <row r="218" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="4"/>
@@ -14614,7 +13141,7 @@
       <c r="BB218" s="7"/>
       <c r="BC218" s="3"/>
     </row>
-    <row r="219" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="4"/>
@@ -14671,7 +13198,7 @@
       <c r="BB219" s="7"/>
       <c r="BC219" s="3"/>
     </row>
-    <row r="220" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="4"/>
@@ -14728,7 +13255,7 @@
       <c r="BB220" s="7"/>
       <c r="BC220" s="3"/>
     </row>
-    <row r="221" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="4"/>
@@ -14785,7 +13312,7 @@
       <c r="BB221" s="7"/>
       <c r="BC221" s="3"/>
     </row>
-    <row r="222" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="4"/>
@@ -14842,7 +13369,7 @@
       <c r="BB222" s="7"/>
       <c r="BC222" s="3"/>
     </row>
-    <row r="223" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="3"/>
@@ -14899,7 +13426,7 @@
       <c r="BB223" s="3"/>
       <c r="BC223" s="3"/>
     </row>
-    <row r="224" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="4"/>
@@ -14956,7 +13483,7 @@
       <c r="BB224" s="7"/>
       <c r="BC224" s="3"/>
     </row>
-    <row r="225" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="4"/>
@@ -15013,7 +13540,7 @@
       <c r="BB225" s="7"/>
       <c r="BC225" s="3"/>
     </row>
-    <row r="226" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="4"/>
@@ -15070,7 +13597,7 @@
       <c r="BB226" s="7"/>
       <c r="BC226" s="3"/>
     </row>
-    <row r="227" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="4"/>
@@ -15127,7 +13654,7 @@
       <c r="BB227" s="7"/>
       <c r="BC227" s="3"/>
     </row>
-    <row r="228" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="4"/>
@@ -15184,7 +13711,7 @@
       <c r="BB228" s="7"/>
       <c r="BC228" s="3"/>
     </row>
-    <row r="229" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="4"/>
@@ -15241,7 +13768,7 @@
       <c r="BB229" s="7"/>
       <c r="BC229" s="3"/>
     </row>
-    <row r="230" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="4"/>
@@ -15298,7 +13825,7 @@
       <c r="BB230" s="7"/>
       <c r="BC230" s="3"/>
     </row>
-    <row r="231" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="4"/>
@@ -15355,7 +13882,7 @@
       <c r="BB231" s="7"/>
       <c r="BC231" s="3"/>
     </row>
-    <row r="232" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="4"/>
@@ -15412,7 +13939,7 @@
       <c r="BB232" s="7"/>
       <c r="BC232" s="3"/>
     </row>
-    <row r="233" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="4"/>
@@ -15469,7 +13996,7 @@
       <c r="BB233" s="3"/>
       <c r="BC233" s="3"/>
     </row>
-    <row r="234" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="4"/>
@@ -15526,7 +14053,7 @@
       <c r="BB234" s="7"/>
       <c r="BC234" s="3"/>
     </row>
-    <row r="235" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="4"/>
@@ -15583,7 +14110,7 @@
       <c r="BB235" s="7"/>
       <c r="BC235" s="3"/>
     </row>
-    <row r="236" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="4"/>
@@ -15640,7 +14167,7 @@
       <c r="BB236" s="3"/>
       <c r="BC236" s="3"/>
     </row>
-    <row r="237" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="4"/>
@@ -15697,7 +14224,7 @@
       <c r="BB237" s="7"/>
       <c r="BC237" s="3"/>
     </row>
-    <row r="238" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="4"/>
@@ -15754,7 +14281,7 @@
       <c r="BB238" s="3"/>
       <c r="BC238" s="3"/>
     </row>
-    <row r="239" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="4"/>
@@ -15811,7 +14338,7 @@
       <c r="BB239" s="7"/>
       <c r="BC239" s="3"/>
     </row>
-    <row r="240" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="4"/>
@@ -15868,7 +14395,7 @@
       <c r="BB240" s="7"/>
       <c r="BC240" s="3"/>
     </row>
-    <row r="241" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="4"/>
@@ -15925,7 +14452,7 @@
       <c r="BB241" s="7"/>
       <c r="BC241" s="3"/>
     </row>
-    <row r="242" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="4"/>
@@ -15982,7 +14509,7 @@
       <c r="BB242" s="7"/>
       <c r="BC242" s="3"/>
     </row>
-    <row r="243" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="4"/>
@@ -16039,7 +14566,7 @@
       <c r="BB243" s="7"/>
       <c r="BC243" s="3"/>
     </row>
-    <row r="244" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="4"/>
@@ -16096,7 +14623,7 @@
       <c r="BB244" s="7"/>
       <c r="BC244" s="3"/>
     </row>
-    <row r="245" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="4"/>
@@ -16153,7 +14680,7 @@
       <c r="BB245" s="7"/>
       <c r="BC245" s="3"/>
     </row>
-    <row r="246" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="4"/>
@@ -16210,7 +14737,7 @@
       <c r="BB246" s="3"/>
       <c r="BC246" s="3"/>
     </row>
-    <row r="247" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -16267,7 +14794,7 @@
       <c r="BB247" s="7"/>
       <c r="BC247" s="3"/>
     </row>
-    <row r="248" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="4"/>
@@ -16324,7 +14851,7 @@
       <c r="BB248" s="7"/>
       <c r="BC248" s="3"/>
     </row>
-    <row r="249" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="4"/>
@@ -16381,7 +14908,7 @@
       <c r="BB249" s="7"/>
       <c r="BC249" s="3"/>
     </row>
-    <row r="250" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="4"/>
@@ -16438,7 +14965,7 @@
       <c r="BB250" s="7"/>
       <c r="BC250" s="3"/>
     </row>
-    <row r="251" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="4"/>
@@ -16495,7 +15022,7 @@
       <c r="BB251" s="7"/>
       <c r="BC251" s="3"/>
     </row>
-    <row r="252" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="4"/>
@@ -16552,7 +15079,7 @@
       <c r="BB252" s="7"/>
       <c r="BC252" s="3"/>
     </row>
-    <row r="253" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="4"/>
@@ -16609,7 +15136,7 @@
       <c r="BB253" s="3"/>
       <c r="BC253" s="3"/>
     </row>
-    <row r="254" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="4"/>
@@ -16666,7 +15193,7 @@
       <c r="BB254" s="7"/>
       <c r="BC254" s="3"/>
     </row>
-    <row r="255" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="4"/>
@@ -16723,7 +15250,7 @@
       <c r="BB255" s="7"/>
       <c r="BC255" s="3"/>
     </row>
-    <row r="256" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="4"/>
@@ -16780,7 +15307,7 @@
       <c r="BB256" s="3"/>
       <c r="BC256" s="3"/>
     </row>
-    <row r="257" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="4"/>
@@ -16837,7 +15364,7 @@
       <c r="BB257" s="7"/>
       <c r="BC257" s="3"/>
     </row>
-    <row r="258" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="4"/>
@@ -16894,7 +15421,7 @@
       <c r="BB258" s="7"/>
       <c r="BC258" s="3"/>
     </row>
-    <row r="259" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="4"/>
@@ -16951,7 +15478,7 @@
       <c r="BB259" s="7"/>
       <c r="BC259" s="3"/>
     </row>
-    <row r="260" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="4"/>
@@ -17008,7 +15535,7 @@
       <c r="BB260" s="7"/>
       <c r="BC260" s="3"/>
     </row>
-    <row r="261" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="3"/>
@@ -17065,7 +15592,7 @@
       <c r="BB261" s="3"/>
       <c r="BC261" s="3"/>
     </row>
-    <row r="262" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="4"/>
@@ -17122,7 +15649,7 @@
       <c r="BB262" s="7"/>
       <c r="BC262" s="3"/>
     </row>
-    <row r="263" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="4"/>
@@ -17179,7 +15706,7 @@
       <c r="BB263" s="7"/>
       <c r="BC263" s="3"/>
     </row>
-    <row r="264" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="4"/>
@@ -17236,7 +15763,7 @@
       <c r="BB264" s="7"/>
       <c r="BC264" s="3"/>
     </row>
-    <row r="265" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="4"/>
@@ -17293,7 +15820,7 @@
       <c r="BB265" s="7"/>
       <c r="BC265" s="3"/>
     </row>
-    <row r="266" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="4"/>
@@ -17350,7 +15877,7 @@
       <c r="BB266" s="7"/>
       <c r="BC266" s="3"/>
     </row>
-    <row r="267" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="4"/>
@@ -17407,7 +15934,7 @@
       <c r="BB267" s="7"/>
       <c r="BC267" s="3"/>
     </row>
-    <row r="268" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="4"/>
@@ -17464,7 +15991,7 @@
       <c r="BB268" s="7"/>
       <c r="BC268" s="3"/>
     </row>
-    <row r="269" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="4"/>
@@ -17521,7 +16048,7 @@
       <c r="BB269" s="7"/>
       <c r="BC269" s="3"/>
     </row>
-    <row r="270" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="4"/>
@@ -17578,7 +16105,7 @@
       <c r="BB270" s="7"/>
       <c r="BC270" s="3"/>
     </row>
-    <row r="271" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="4"/>
@@ -17635,7 +16162,7 @@
       <c r="BB271" s="7"/>
       <c r="BC271" s="3"/>
     </row>
-    <row r="272" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="4"/>
@@ -17692,7 +16219,7 @@
       <c r="BB272" s="3"/>
       <c r="BC272" s="3"/>
     </row>
-    <row r="273" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="4"/>
@@ -17749,7 +16276,7 @@
       <c r="BB273" s="3"/>
       <c r="BC273" s="3"/>
     </row>
-    <row r="274" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="4"/>
@@ -17806,7 +16333,7 @@
       <c r="BB274" s="7"/>
       <c r="BC274" s="3"/>
     </row>
-    <row r="275" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="4"/>
@@ -17863,7 +16390,7 @@
       <c r="BB275" s="7"/>
       <c r="BC275" s="3"/>
     </row>
-    <row r="276" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="4"/>
@@ -17920,7 +16447,7 @@
       <c r="BB276" s="3"/>
       <c r="BC276" s="3"/>
     </row>
-    <row r="277" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="4"/>
@@ -17977,7 +16504,7 @@
       <c r="BB277" s="7"/>
       <c r="BC277" s="3"/>
     </row>
-    <row r="278" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="4"/>
@@ -18034,7 +16561,7 @@
       <c r="BB278" s="3"/>
       <c r="BC278" s="3"/>
     </row>
-    <row r="279" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="4"/>
@@ -18091,7 +16618,7 @@
       <c r="BB279" s="7"/>
       <c r="BC279" s="3"/>
     </row>
-    <row r="280" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="4"/>
@@ -18148,7 +16675,7 @@
       <c r="BB280" s="7"/>
       <c r="BC280" s="3"/>
     </row>
-    <row r="281" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="4"/>
@@ -18205,7 +16732,7 @@
       <c r="BB281" s="7"/>
       <c r="BC281" s="3"/>
     </row>
-    <row r="282" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="4"/>
@@ -18262,7 +16789,7 @@
       <c r="BB282" s="3"/>
       <c r="BC282" s="3"/>
     </row>
-    <row r="283" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="4"/>
@@ -18319,7 +16846,7 @@
       <c r="BB283" s="3"/>
       <c r="BC283" s="3"/>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="4"/>
@@ -18376,7 +16903,7 @@
       <c r="BB284" s="7"/>
       <c r="BC284" s="3"/>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="4"/>
@@ -18433,7 +16960,7 @@
       <c r="BB285" s="7"/>
       <c r="BC285" s="3"/>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="4"/>
@@ -18490,7 +17017,7 @@
       <c r="BB286" s="3"/>
       <c r="BC286" s="3"/>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="4"/>
@@ -18547,7 +17074,7 @@
       <c r="BB287" s="7"/>
       <c r="BC287" s="3"/>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="4"/>
@@ -18604,7 +17131,7 @@
       <c r="BB288" s="3"/>
       <c r="BC288" s="3"/>
     </row>
-    <row r="289" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="4"/>
@@ -18661,7 +17188,7 @@
       <c r="BB289" s="7"/>
       <c r="BC289" s="3"/>
     </row>
-    <row r="290" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="4"/>
@@ -18718,7 +17245,7 @@
       <c r="BB290" s="7"/>
       <c r="BC290" s="3"/>
     </row>
-    <row r="291" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="4"/>
@@ -18775,7 +17302,7 @@
       <c r="BB291" s="7"/>
       <c r="BC291" s="3"/>
     </row>
-    <row r="292" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="4"/>
@@ -18832,7 +17359,7 @@
       <c r="BB292" s="7"/>
       <c r="BC292" s="3"/>
     </row>
-    <row r="293" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="4"/>
@@ -18889,7 +17416,7 @@
       <c r="BB293" s="3"/>
       <c r="BC293" s="3"/>
     </row>
-    <row r="294" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="4"/>
@@ -18946,7 +17473,7 @@
       <c r="BB294" s="7"/>
       <c r="BC294" s="3"/>
     </row>
-    <row r="295" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="4"/>
@@ -19003,7 +17530,7 @@
       <c r="BB295" s="7"/>
       <c r="BC295" s="3"/>
     </row>
-    <row r="296" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="4"/>
@@ -19060,7 +17587,7 @@
       <c r="BB296" s="7"/>
       <c r="BC296" s="3"/>
     </row>
-    <row r="297" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="4"/>
@@ -19117,7 +17644,7 @@
       <c r="BB297" s="3"/>
       <c r="BC297" s="3"/>
     </row>
-    <row r="298" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="4"/>
@@ -19174,7 +17701,7 @@
       <c r="BB298" s="3"/>
       <c r="BC298" s="3"/>
     </row>
-    <row r="299" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="4"/>
@@ -19231,7 +17758,7 @@
       <c r="BB299" s="3"/>
       <c r="BC299" s="3"/>
     </row>
-    <row r="300" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="4"/>
@@ -19288,7 +17815,7 @@
       <c r="BB300" s="7"/>
       <c r="BC300" s="3"/>
     </row>
-    <row r="301" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="4"/>
@@ -19345,7 +17872,7 @@
       <c r="BB301" s="7"/>
       <c r="BC301" s="3"/>
     </row>
-    <row r="302" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="4"/>
@@ -19402,7 +17929,7 @@
       <c r="BB302" s="7"/>
       <c r="BC302" s="3"/>
     </row>
-    <row r="303" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="4"/>
@@ -19459,7 +17986,7 @@
       <c r="BB303" s="3"/>
       <c r="BC303" s="3"/>
     </row>
-    <row r="304" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="3"/>
@@ -19516,7 +18043,7 @@
       <c r="BB304" s="7"/>
       <c r="BC304" s="3"/>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="4"/>
@@ -19573,7 +18100,7 @@
       <c r="BB305" s="7"/>
       <c r="BC305" s="3"/>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="4"/>
@@ -19630,7 +18157,7 @@
       <c r="BB306" s="7"/>
       <c r="BC306" s="3"/>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="4"/>
@@ -19687,7 +18214,7 @@
       <c r="BB307" s="7"/>
       <c r="BC307" s="3"/>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="4"/>
@@ -19744,7 +18271,7 @@
       <c r="BB308" s="3"/>
       <c r="BC308" s="3"/>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="4"/>
@@ -19801,7 +18328,7 @@
       <c r="BB309" s="3"/>
       <c r="BC309" s="3"/>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="4"/>
@@ -19858,7 +18385,7 @@
       <c r="BB310" s="7"/>
       <c r="BC310" s="3"/>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="4"/>
@@ -19915,7 +18442,7 @@
       <c r="BB311" s="7"/>
       <c r="BC311" s="3"/>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="4"/>
@@ -19972,7 +18499,7 @@
       <c r="BB312" s="7"/>
       <c r="BC312" s="3"/>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="4"/>
@@ -20029,7 +18556,7 @@
       <c r="BB313" s="7"/>
       <c r="BC313" s="3"/>
     </row>
-    <row r="314" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="4"/>
@@ -20086,7 +18613,7 @@
       <c r="BB314" s="7"/>
       <c r="BC314" s="3"/>
     </row>
-    <row r="315" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="4"/>
@@ -20143,7 +18670,7 @@
       <c r="BB315" s="3"/>
       <c r="BC315" s="3"/>
     </row>
-    <row r="316" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="4"/>
@@ -20200,7 +18727,7 @@
       <c r="BB316" s="7"/>
       <c r="BC316" s="3"/>
     </row>
-    <row r="317" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="4"/>
@@ -20257,7 +18784,7 @@
       <c r="BB317" s="7"/>
       <c r="BC317" s="3"/>
     </row>
-    <row r="318" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="4"/>
@@ -20314,7 +18841,7 @@
       <c r="BB318" s="7"/>
       <c r="BC318" s="3"/>
     </row>
-    <row r="319" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="4"/>
@@ -20371,7 +18898,7 @@
       <c r="BB319" s="7"/>
       <c r="BC319" s="3"/>
     </row>
-    <row r="320" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="4"/>
@@ -20428,7 +18955,7 @@
       <c r="BB320" s="7"/>
       <c r="BC320" s="3"/>
     </row>
-    <row r="321" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="4"/>
@@ -20485,7 +19012,7 @@
       <c r="BB321" s="7"/>
       <c r="BC321" s="3"/>
     </row>
-    <row r="322" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="4"/>
@@ -20542,7 +19069,7 @@
       <c r="BB322" s="7"/>
       <c r="BC322" s="3"/>
     </row>
-    <row r="323" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="3"/>
@@ -20602,6 +19129,60 @@
   </sheetData>
   <autoFilter ref="A1:BC323" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="67">
+    <mergeCell ref="Y140:Z140"/>
+    <mergeCell ref="AC140:AD140"/>
+    <mergeCell ref="Y152:Z152"/>
+    <mergeCell ref="AC152:AD152"/>
+    <mergeCell ref="AC193:AD193"/>
+    <mergeCell ref="Y230:AA230"/>
+    <mergeCell ref="AC230:AD230"/>
+    <mergeCell ref="Y193:AA193"/>
+    <mergeCell ref="Y213:AA213"/>
+    <mergeCell ref="AC213:AD213"/>
+    <mergeCell ref="Y216:AA216"/>
+    <mergeCell ref="AC216:AD216"/>
+    <mergeCell ref="Y218:Z218"/>
+    <mergeCell ref="AC218:AD218"/>
+    <mergeCell ref="Y222:AA222"/>
+    <mergeCell ref="AC222:AD222"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AJ49:AK49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="AJ65:AK65"/>
+    <mergeCell ref="AC72:AD72"/>
+    <mergeCell ref="AJ72:AK72"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="Y85:AA85"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y94:AA94"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="Y131:AA131"/>
+    <mergeCell ref="Y132:AA132"/>
     <mergeCell ref="AJ314:AK314"/>
     <mergeCell ref="AJ101:AK101"/>
     <mergeCell ref="AJ102:AK102"/>
@@ -20615,60 +19196,6 @@
     <mergeCell ref="AJ230:AK230"/>
     <mergeCell ref="AJ239:AK239"/>
     <mergeCell ref="AJ253:AK253"/>
-    <mergeCell ref="Y85:AA85"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Y94:AA94"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AC132:AD132"/>
-    <mergeCell ref="AJ82:AK82"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AJ85:AK85"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="AJ65:AK65"/>
-    <mergeCell ref="AC72:AD72"/>
-    <mergeCell ref="AJ72:AK72"/>
-    <mergeCell ref="Y71:Z71"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AJ49:AK49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC193:AD193"/>
-    <mergeCell ref="Y230:AA230"/>
-    <mergeCell ref="AC230:AD230"/>
-    <mergeCell ref="Y193:AA193"/>
-    <mergeCell ref="Y213:AA213"/>
-    <mergeCell ref="AC213:AD213"/>
-    <mergeCell ref="Y216:AA216"/>
-    <mergeCell ref="AC216:AD216"/>
-    <mergeCell ref="Y218:Z218"/>
-    <mergeCell ref="AC218:AD218"/>
-    <mergeCell ref="Y222:AA222"/>
-    <mergeCell ref="AC222:AD222"/>
-    <mergeCell ref="Y131:AA131"/>
-    <mergeCell ref="Y132:AA132"/>
-    <mergeCell ref="Y140:Z140"/>
-    <mergeCell ref="AC140:AD140"/>
-    <mergeCell ref="Y152:Z152"/>
-    <mergeCell ref="AC152:AD152"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -20687,99 +19214,6 @@
     <hyperlink ref="C5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="E5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="K5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A10" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C11" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K11" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A12" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C12" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E12" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C13" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E13" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K13" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C14" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E14" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K14" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C15" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E15" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A16" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C16" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E17" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K17" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A18" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C18" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E18" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K18" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A19" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C19" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E19" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A20" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C20" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E20" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A21" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K21" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E22" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K22" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A23" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B23" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C23" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E23" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E24" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K24" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A25" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C25" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E25" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="K25" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E26" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C27" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E27" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A28" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C28" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E28" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="K28" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K29" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A30" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C30" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E30" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="K30" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
